--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239980.56634931</v>
+        <v>1236373.044669813</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5658037.598036021</v>
+        <v>5658037.598036019</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4150656.367980058</v>
+        <v>4150656.36798006</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>181.8585159875522</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -1429,16 +1429,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>258.0645401426182</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>119.8461174193189</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.47996054760887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>353.4257270033027</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.15840891857628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>137.6384805602074</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>268.6591005746849</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>322.5727659354386</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>201.9553939827279</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>74.42811009354853</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.42066674657689</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>137.6351379060686</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>244.9575147694474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>63.62546569681869</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>186.2545967993059</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -2377,16 +2377,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>257.24049828868</v>
+        <v>186.3837126810933</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>162.6916339692846</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>157.7536153308827</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>59.58413366738738</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>87.56209025259291</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>66.457937966106</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>40.73564470446562</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>233.6350801659488</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>213.4124773372062</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>85.46547451684583</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>37.68291655109383</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>206.8884504128163</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,10 +3672,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>37.42187080897062</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.46272922979662</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>201.9553939827275</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>15.6856445053686</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>163.1207464619003</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3979,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>195.9083147993709</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>139.7748540942714</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -4188,7 +4188,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.276503983153</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1588.348011983849</v>
+        <v>230.9020222434519</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.205539167272</v>
+        <v>230.9020222434519</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.205539167272</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
         <v>1775.969506973259</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V11" t="n">
-        <v>1588.348011983849</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W11" t="n">
-        <v>1588.348011983849</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X11" t="n">
-        <v>1588.348011983849</v>
+        <v>1065.487716428706</v>
       </c>
       <c r="Y11" t="n">
-        <v>1588.348011983849</v>
+        <v>657.2015927283597</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.5847871853875</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C13" t="n">
-        <v>743.0230756686125</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>577.1450828701352</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>407.3870791208724</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
         <v>407.3870791208724</v>
@@ -5196,34 +5196,34 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
@@ -5238,13 +5238,13 @@
         <v>1650.558898871144</v>
       </c>
       <c r="W13" t="n">
-        <v>1378.532494457436</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.140739790848</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1107.403405904375</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1152.340579151123</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="C14" t="n">
-        <v>1152.340579151123</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4307943255671</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
         <v>805.440802286702</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792596</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="Y14" t="n">
-        <v>1152.340579151123</v>
+        <v>2101.25688596925</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5351,22 +5351,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.9477806029472</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>787.3860690861721</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>621.5080762876948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553087</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N16" t="n">
-        <v>1467.692251924755</v>
+        <v>1720.113561076154</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951971</v>
+        <v>2076.872270709337</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000714</v>
+        <v>1798.48563875808</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871144</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="W16" t="n">
-        <v>1379.186070007826</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X16" t="n">
-        <v>1379.186070007826</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y16" t="n">
-        <v>1151.766399321934</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1120.886428673516</v>
+        <v>1674.957315484342</v>
       </c>
       <c r="C17" t="n">
-        <v>1120.886428673516</v>
+        <v>1236.814842667766</v>
       </c>
       <c r="D17" t="n">
-        <v>684.9766438479605</v>
+        <v>800.9050578422102</v>
       </c>
       <c r="E17" t="n">
-        <v>251.2018990062557</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>251.2018990062557</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,34 +5533,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X17" t="n">
-        <v>1955.47212285877</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.185999158424</v>
+        <v>2101.25688596925</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>663.4738450083642</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>663.4738450083642</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D19" t="n">
-        <v>497.5958522098869</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E19" t="n">
-        <v>327.8378484606241</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>151.1307944223803</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>151.1307944223803</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>430.237790046379</v>
       </c>
       <c r="L19" t="n">
-        <v>326.783117436994</v>
+        <v>554.108591664677</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9641928553089</v>
+        <v>1138.289667082992</v>
       </c>
       <c r="N19" t="n">
-        <v>1480.721907816843</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O19" t="n">
-        <v>2018.157038390386</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
@@ -5709,16 +5709,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1893.561637177626</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C20" t="n">
-        <v>1455.41916436105</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D20" t="n">
-        <v>1019.509379535494</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E20" t="n">
-        <v>585.7346346937893</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F20" t="n">
-        <v>585.7346346937893</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>186.2319433732665</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435799</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228009</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662534</v>
+        <v>2112.895744347284</v>
       </c>
       <c r="V20" t="n">
-        <v>2319.861207662534</v>
+        <v>1750.278794281111</v>
       </c>
       <c r="W20" t="n">
-        <v>2319.861207662534</v>
+        <v>1345.423339692144</v>
       </c>
       <c r="X20" t="n">
-        <v>2319.861207662534</v>
+        <v>1345.423339692144</v>
       </c>
       <c r="Y20" t="n">
-        <v>2319.861207662534</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,10 +5822,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.5847871853875</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>743.0230756686125</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="D22" t="n">
-        <v>577.1450828701352</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E22" t="n">
         <v>407.3870791208724</v>
@@ -5907,55 +5907,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579906</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1522.959032953202</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1334.823076590267</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1107.403405904375</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1610.3755815117</v>
+        <v>2042.610739077364</v>
       </c>
       <c r="C23" t="n">
-        <v>1610.3755815117</v>
+        <v>1604.468266260787</v>
       </c>
       <c r="D23" t="n">
-        <v>1174.465796686144</v>
+        <v>1168.558481435232</v>
       </c>
       <c r="E23" t="n">
-        <v>740.6910518444396</v>
+        <v>1168.558481435232</v>
       </c>
       <c r="F23" t="n">
-        <v>740.6910518444396</v>
+        <v>740.6910518444397</v>
       </c>
       <c r="G23" t="n">
-        <v>341.1883605239167</v>
+        <v>341.1883605239169</v>
       </c>
       <c r="H23" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I23" t="n">
-        <v>142.6667593190078</v>
+        <v>142.6667593190079</v>
       </c>
       <c r="J23" t="n">
-        <v>300.313534562453</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K23" t="n">
-        <v>1108.036332331332</v>
+        <v>1619.969984229734</v>
       </c>
       <c r="L23" t="n">
-        <v>1401.152207195232</v>
+        <v>2018.45367823033</v>
       </c>
       <c r="M23" t="n">
-        <v>1727.300095364019</v>
+        <v>2344.601566399117</v>
       </c>
       <c r="N23" t="n">
-        <v>2058.725397340497</v>
+        <v>2676.026868375594</v>
       </c>
       <c r="O23" t="n">
-        <v>2371.68091188179</v>
+        <v>2988.982382916887</v>
       </c>
       <c r="P23" t="n">
-        <v>3256.082674096151</v>
+        <v>3256.082674096156</v>
       </c>
       <c r="Q23" t="n">
-        <v>3456.663869107218</v>
+        <v>3456.663869107223</v>
       </c>
       <c r="R23" t="n">
-        <v>3573.340453391359</v>
+        <v>3573.340453391364</v>
       </c>
       <c r="S23" t="n">
-        <v>3573.340453391359</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="T23" t="n">
-        <v>3361.569201860471</v>
+        <v>3321.102832075273</v>
       </c>
       <c r="U23" t="n">
-        <v>3102.498510381985</v>
+        <v>3062.032140596787</v>
       </c>
       <c r="V23" t="n">
-        <v>2842.659623221703</v>
+        <v>2873.765764151239</v>
       </c>
       <c r="W23" t="n">
-        <v>2437.804168632736</v>
+        <v>2468.910309562272</v>
       </c>
       <c r="X23" t="n">
-        <v>2018.661705212046</v>
+        <v>2468.910309562272</v>
       </c>
       <c r="Y23" t="n">
-        <v>1610.3755815117</v>
+        <v>2468.910309562272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852633</v>
       </c>
       <c r="C24" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219056</v>
       </c>
       <c r="D24" t="n">
         <v>365.2848125684588</v>
@@ -6056,31 +6056,31 @@
         <v>271.1643978954125</v>
       </c>
       <c r="F24" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115742</v>
       </c>
       <c r="G24" t="n">
-        <v>103.4094591012309</v>
+        <v>103.409459101231</v>
       </c>
       <c r="H24" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I24" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J24" t="n">
-        <v>199.5768845857702</v>
+        <v>199.5768845857706</v>
       </c>
       <c r="K24" t="n">
-        <v>360.0555566399404</v>
+        <v>360.0555566399408</v>
       </c>
       <c r="L24" t="n">
-        <v>575.8389355149628</v>
+        <v>575.8389355149632</v>
       </c>
       <c r="M24" t="n">
-        <v>827.6479608176602</v>
+        <v>827.6479608176605</v>
       </c>
       <c r="N24" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O24" t="n">
         <v>1322.574524553511</v>
@@ -6089,13 +6089,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q24" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R24" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S24" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T24" t="n">
         <v>1530.198788027851</v>
@@ -6107,13 +6107,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W24" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X24" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858057</v>
       </c>
       <c r="Y24" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650265</v>
       </c>
     </row>
     <row r="25">
@@ -6126,58 +6126,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C25" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D25" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E25" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779887</v>
       </c>
       <c r="F25" t="n">
-        <v>431.6473366397448</v>
+        <v>431.6473366397449</v>
       </c>
       <c r="G25" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H25" t="n">
         <v>134.5620956315792</v>
       </c>
       <c r="I25" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3724727700103</v>
+        <v>216.9521579347002</v>
       </c>
       <c r="K25" t="n">
-        <v>410.6624665106465</v>
+        <v>588.510713073394</v>
       </c>
       <c r="L25" t="n">
-        <v>952.7431498969054</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M25" t="n">
-        <v>1542.831409416348</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N25" t="n">
-        <v>2112.589124377882</v>
+        <v>1765.082230407541</v>
       </c>
       <c r="O25" t="n">
-        <v>2650.024254951425</v>
+        <v>2302.517360981084</v>
       </c>
       <c r="P25" t="n">
-        <v>2750.793311129109</v>
+        <v>2750.79331112911</v>
       </c>
       <c r="Q25" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R25" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S25" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T25" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U25" t="n">
         <v>2340.164055357248</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1602.333226276937</v>
+        <v>2476.385483919069</v>
       </c>
       <c r="C26" t="n">
-        <v>1602.333226276937</v>
+        <v>2038.243011102492</v>
       </c>
       <c r="D26" t="n">
         <v>1602.333226276937</v>
@@ -6214,22 +6214,22 @@
         <v>1168.558481435232</v>
       </c>
       <c r="F26" t="n">
-        <v>740.6910518444396</v>
+        <v>740.6910518444397</v>
       </c>
       <c r="G26" t="n">
-        <v>341.1883605239167</v>
+        <v>341.1883605239169</v>
       </c>
       <c r="H26" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I26" t="n">
-        <v>142.6667593190078</v>
+        <v>142.6667593190079</v>
       </c>
       <c r="J26" t="n">
-        <v>735.5682220153709</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K26" t="n">
-        <v>971.8398723945919</v>
+        <v>971.8398723945921</v>
       </c>
       <c r="L26" t="n">
         <v>1264.955747258493</v>
@@ -6241,37 +6241,37 @@
         <v>1922.528937403757</v>
       </c>
       <c r="O26" t="n">
-        <v>2273.32953220523</v>
+        <v>2235.48445194505</v>
       </c>
       <c r="P26" t="n">
-        <v>2540.429823384499</v>
+        <v>2540.429823384504</v>
       </c>
       <c r="Q26" t="n">
-        <v>3287.509804354162</v>
+        <v>3287.509804354167</v>
       </c>
       <c r="R26" t="n">
-        <v>3573.340453391359</v>
+        <v>3573.340453391364</v>
       </c>
       <c r="S26" t="n">
-        <v>3573.340453391359</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="T26" t="n">
-        <v>3361.569201860471</v>
+        <v>3321.102832075273</v>
       </c>
       <c r="U26" t="n">
-        <v>3197.234218053113</v>
+        <v>3062.032140596787</v>
       </c>
       <c r="V26" t="n">
-        <v>2834.61726798694</v>
+        <v>3062.032140596787</v>
       </c>
       <c r="W26" t="n">
-        <v>2429.761813397973</v>
+        <v>2902.685054403977</v>
       </c>
       <c r="X26" t="n">
-        <v>2010.619349977283</v>
+        <v>2902.685054403977</v>
       </c>
       <c r="Y26" t="n">
-        <v>1602.333226276937</v>
+        <v>2902.685054403977</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852633</v>
       </c>
       <c r="C27" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219056</v>
       </c>
       <c r="D27" t="n">
         <v>365.2848125684588</v>
@@ -6293,31 +6293,31 @@
         <v>271.1643978954125</v>
       </c>
       <c r="F27" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115742</v>
       </c>
       <c r="G27" t="n">
-        <v>103.4094591012309</v>
+        <v>103.409459101231</v>
       </c>
       <c r="H27" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I27" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J27" t="n">
-        <v>199.5768845857704</v>
+        <v>199.5768845857706</v>
       </c>
       <c r="K27" t="n">
-        <v>360.0555566399404</v>
+        <v>360.0555566399408</v>
       </c>
       <c r="L27" t="n">
-        <v>575.8389355149628</v>
+        <v>575.8389355149632</v>
       </c>
       <c r="M27" t="n">
-        <v>827.6479608176602</v>
+        <v>827.6479608176605</v>
       </c>
       <c r="N27" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O27" t="n">
         <v>1322.574524553511</v>
@@ -6326,13 +6326,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q27" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R27" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S27" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T27" t="n">
         <v>1530.198788027851</v>
@@ -6344,13 +6344,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W27" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X27" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858057</v>
       </c>
       <c r="Y27" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650265</v>
       </c>
     </row>
     <row r="28">
@@ -6363,58 +6363,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C28" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D28" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E28" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779887</v>
       </c>
       <c r="F28" t="n">
-        <v>431.6473366397448</v>
+        <v>431.6473366397449</v>
       </c>
       <c r="G28" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H28" t="n">
         <v>134.5620956315792</v>
       </c>
       <c r="I28" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3724727700103</v>
+        <v>216.9521579347002</v>
       </c>
       <c r="K28" t="n">
-        <v>501.931027908704</v>
+        <v>588.510713073394</v>
       </c>
       <c r="L28" t="n">
-        <v>625.8018295270019</v>
+        <v>1064.720123107478</v>
       </c>
       <c r="M28" t="n">
-        <v>1215.890089046444</v>
+        <v>1195.324515446007</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.647804007978</v>
+        <v>1765.082230407541</v>
       </c>
       <c r="O28" t="n">
         <v>2302.517360981084</v>
       </c>
       <c r="P28" t="n">
-        <v>2750.793311129109</v>
+        <v>2750.79331112911</v>
       </c>
       <c r="Q28" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R28" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S28" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T28" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U28" t="n">
         <v>2340.164055357248</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1662.519219880358</v>
+        <v>2131.057294888064</v>
       </c>
       <c r="C29" t="n">
-        <v>1602.333226276937</v>
+        <v>1692.914822071487</v>
       </c>
       <c r="D29" t="n">
-        <v>1602.333226276937</v>
+        <v>1257.005037245932</v>
       </c>
       <c r="E29" t="n">
         <v>1168.558481435232</v>
       </c>
       <c r="F29" t="n">
-        <v>740.6910518444396</v>
+        <v>740.6910518444397</v>
       </c>
       <c r="G29" t="n">
-        <v>341.1883605239167</v>
+        <v>341.1883605239169</v>
       </c>
       <c r="H29" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I29" t="n">
-        <v>142.6667593190078</v>
+        <v>142.6667593190079</v>
       </c>
       <c r="J29" t="n">
-        <v>300.313534562453</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K29" t="n">
-        <v>536.585184941674</v>
+        <v>971.8398723945921</v>
       </c>
       <c r="L29" t="n">
-        <v>1420.986947156035</v>
+        <v>1264.955747258493</v>
       </c>
       <c r="M29" t="n">
-        <v>1747.134835324822</v>
+        <v>1591.10363542728</v>
       </c>
       <c r="N29" t="n">
-        <v>2631.536597539184</v>
+        <v>1922.528937403757</v>
       </c>
       <c r="O29" t="n">
-        <v>2988.982382916882</v>
+        <v>2235.48445194505</v>
       </c>
       <c r="P29" t="n">
-        <v>3256.082674096151</v>
+        <v>2540.429823384504</v>
       </c>
       <c r="Q29" t="n">
-        <v>3456.663869107218</v>
+        <v>3287.509804354167</v>
       </c>
       <c r="R29" t="n">
-        <v>3573.340453391359</v>
+        <v>3573.340453391364</v>
       </c>
       <c r="S29" t="n">
-        <v>3532.874083606156</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.102832075268</v>
+        <v>3321.102832075273</v>
       </c>
       <c r="U29" t="n">
-        <v>3321.102832075268</v>
+        <v>3321.102832075273</v>
       </c>
       <c r="V29" t="n">
-        <v>3321.102832075268</v>
+        <v>2958.4858820091</v>
       </c>
       <c r="W29" t="n">
-        <v>2916.247377486302</v>
+        <v>2958.4858820091</v>
       </c>
       <c r="X29" t="n">
-        <v>2497.104914065613</v>
+        <v>2539.343418588411</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.818790365266</v>
+        <v>2131.057294888064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852633</v>
       </c>
       <c r="C30" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219056</v>
       </c>
       <c r="D30" t="n">
         <v>365.2848125684588</v>
@@ -6530,31 +6530,31 @@
         <v>271.1643978954125</v>
       </c>
       <c r="F30" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115742</v>
       </c>
       <c r="G30" t="n">
-        <v>103.4094591012309</v>
+        <v>103.409459101231</v>
       </c>
       <c r="H30" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I30" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J30" t="n">
-        <v>199.5768845857704</v>
+        <v>199.5768845857706</v>
       </c>
       <c r="K30" t="n">
-        <v>360.0555566399407</v>
+        <v>360.0555566399408</v>
       </c>
       <c r="L30" t="n">
-        <v>575.8389355149631</v>
+        <v>575.8389355149632</v>
       </c>
       <c r="M30" t="n">
-        <v>827.6479608176604</v>
+        <v>827.6479608176605</v>
       </c>
       <c r="N30" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O30" t="n">
         <v>1322.574524553511</v>
@@ -6563,13 +6563,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q30" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R30" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S30" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T30" t="n">
         <v>1530.198788027851</v>
@@ -6581,13 +6581,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W30" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X30" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858057</v>
       </c>
       <c r="Y30" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650265</v>
       </c>
     </row>
     <row r="31">
@@ -6600,58 +6600,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C31" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D31" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E31" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779887</v>
       </c>
       <c r="F31" t="n">
-        <v>431.6473366397448</v>
+        <v>431.6473366397449</v>
       </c>
       <c r="G31" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H31" t="n">
         <v>134.5620956315792</v>
       </c>
       <c r="I31" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3724727700103</v>
+        <v>216.9521579347002</v>
       </c>
       <c r="K31" t="n">
-        <v>227.1725733375685</v>
+        <v>588.510713073394</v>
       </c>
       <c r="L31" t="n">
-        <v>605.2362559265634</v>
+        <v>952.7431498969063</v>
       </c>
       <c r="M31" t="n">
-        <v>1195.324515446006</v>
+        <v>1542.831409416349</v>
       </c>
       <c r="N31" t="n">
-        <v>1765.08223040754</v>
+        <v>2112.589124377883</v>
       </c>
       <c r="O31" t="n">
-        <v>2302.517360981084</v>
+        <v>2650.024254951426</v>
       </c>
       <c r="P31" t="n">
-        <v>2750.793311129109</v>
+        <v>2750.79331112911</v>
       </c>
       <c r="Q31" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R31" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S31" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T31" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U31" t="n">
         <v>2340.164055357248</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2042.610739077364</v>
+        <v>1874.290471411251</v>
       </c>
       <c r="C32" t="n">
-        <v>1604.468266260787</v>
+        <v>1436.147998594674</v>
       </c>
       <c r="D32" t="n">
-        <v>1168.558481435232</v>
+        <v>1000.238213769118</v>
       </c>
       <c r="E32" t="n">
-        <v>1168.558481435232</v>
+        <v>566.4634689274135</v>
       </c>
       <c r="F32" t="n">
-        <v>740.6910518444396</v>
+        <v>138.5960393366212</v>
       </c>
       <c r="G32" t="n">
-        <v>341.1883605239167</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="H32" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I32" t="n">
-        <v>142.6667593190078</v>
+        <v>142.6667593190079</v>
       </c>
       <c r="J32" t="n">
-        <v>735.5682220153709</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K32" t="n">
-        <v>971.8398723945919</v>
+        <v>971.8398723945921</v>
       </c>
       <c r="L32" t="n">
         <v>1264.955747258493</v>
@@ -6718,34 +6718,34 @@
         <v>2235.48445194505</v>
       </c>
       <c r="P32" t="n">
-        <v>2709.583888137556</v>
+        <v>2540.429823384504</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.663869107218</v>
+        <v>3287.509804354167</v>
       </c>
       <c r="R32" t="n">
-        <v>3573.340453391359</v>
+        <v>3573.340453391364</v>
       </c>
       <c r="S32" t="n">
-        <v>3532.874083606156</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="T32" t="n">
-        <v>3532.874083606156</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="U32" t="n">
-        <v>3273.80339212767</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="V32" t="n">
-        <v>2911.186442061497</v>
+        <v>3532.874083606161</v>
       </c>
       <c r="W32" t="n">
-        <v>2870.0393261984</v>
+        <v>3128.018629017194</v>
       </c>
       <c r="X32" t="n">
-        <v>2450.896862777711</v>
+        <v>2708.876165596505</v>
       </c>
       <c r="Y32" t="n">
-        <v>2042.610739077364</v>
+        <v>2300.590041896158</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852633</v>
       </c>
       <c r="C33" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219056</v>
       </c>
       <c r="D33" t="n">
         <v>365.2848125684588</v>
@@ -6767,19 +6767,19 @@
         <v>271.1643978954125</v>
       </c>
       <c r="F33" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115742</v>
       </c>
       <c r="G33" t="n">
-        <v>103.4094591012309</v>
+        <v>103.409459101231</v>
       </c>
       <c r="H33" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="I33" t="n">
         <v>105.6835452393033</v>
       </c>
       <c r="J33" t="n">
-        <v>199.5768845857704</v>
+        <v>199.5768845857705</v>
       </c>
       <c r="K33" t="n">
         <v>360.0555566399407</v>
@@ -6800,13 +6800,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q33" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R33" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S33" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T33" t="n">
         <v>1530.198788027851</v>
@@ -6818,13 +6818,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W33" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X33" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858057</v>
       </c>
       <c r="Y33" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650265</v>
       </c>
     </row>
     <row r="34">
@@ -6837,58 +6837,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C34" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D34" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E34" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779887</v>
       </c>
       <c r="F34" t="n">
-        <v>431.6473366397448</v>
+        <v>431.6473366397449</v>
       </c>
       <c r="G34" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H34" t="n">
         <v>134.5620956315792</v>
       </c>
       <c r="I34" t="n">
-        <v>71.46680906782719</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3724727700103</v>
+        <v>134.5482468370791</v>
       </c>
       <c r="K34" t="n">
-        <v>501.931027908704</v>
+        <v>231.3483474046373</v>
       </c>
       <c r="L34" t="n">
-        <v>773.4290307908954</v>
+        <v>773.4290307908963</v>
       </c>
       <c r="M34" t="n">
-        <v>1363.517290310338</v>
+        <v>1363.517290310339</v>
       </c>
       <c r="N34" t="n">
-        <v>1933.275005271872</v>
+        <v>1933.275005271873</v>
       </c>
       <c r="O34" t="n">
-        <v>2470.710135845415</v>
+        <v>2470.710135845416</v>
       </c>
       <c r="P34" t="n">
-        <v>2918.98608599344</v>
+        <v>2918.986085993442</v>
       </c>
       <c r="Q34" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R34" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S34" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T34" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U34" t="n">
         <v>2340.164055357248</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.76150051161</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="C35" t="n">
-        <v>882.6190276950331</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>1116.479018181838</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>682.7042733401329</v>
       </c>
       <c r="F35" t="n">
         <v>446.7092428694776</v>
@@ -6937,13 +6937,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2144.759418521266</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2144.759418521266</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W35" t="n">
-        <v>1739.903963932299</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X35" t="n">
-        <v>1320.76150051161</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="Y35" t="n">
-        <v>1320.76150051161</v>
+        <v>1552.388803007393</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>493.7158412591005</v>
       </c>
       <c r="F37" t="n">
         <v>407.3870791208724</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092375</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827552</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789086</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2322.264025375925</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2043.877393424667</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1955.47212285877</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1517.329650042193</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1517.329650042193</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>1083.554905200488</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>655.6874756096961</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>256.1847842891733</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228014</v>
@@ -7213,13 +7213,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.47212285877</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>1955.47212285877</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1955.47212285877</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>280.4457682374015</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>280.4457682374015</v>
       </c>
       <c r="G40" t="n">
         <v>242.6458987333908</v>
@@ -7332,25 +7332,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M40" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1842.060047552668</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1959.82592890043</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7362,22 +7362,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2307.334921660063</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2028.948289708806</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1310.486457285825</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="C41" t="n">
-        <v>1310.486457285825</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="D41" t="n">
-        <v>874.5766724602698</v>
+        <v>684.9766438479601</v>
       </c>
       <c r="E41" t="n">
-        <v>874.5766724602698</v>
+        <v>251.2018990062552</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,19 +7414,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2092.245870772688</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1729.628920706515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1729.628920706515</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X41" t="n">
-        <v>1310.486457285825</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y41" t="n">
-        <v>1310.486457285825</v>
+        <v>1547.185999158423</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>693.5605581121392</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>520.9988465953642</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>520.9988465953642</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>733.4227107706877</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M43" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7599,22 +7599,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2195.559146678141</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1917.172514726884</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1630.217006597314</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.190602183606</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1112.798847517018</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>885.3791768311264</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>914.3179809915983</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.473006065473</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1340.617551476506</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X44" t="n">
-        <v>1340.617551476506</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1340.617551476506</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7709,22 +7709,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>919.7301297068562</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>718.33180417748</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>718.33180417748</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>548.5738004282173</v>
       </c>
       <c r="F46" t="n">
         <v>407.3870791208724</v>
@@ -7803,28 +7803,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>358.0754347909399</v>
+        <v>464.1452239003832</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.532494457437</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1133.140739790849</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y46" t="n">
-        <v>919.7301297068562</v>
+        <v>890.893515694255</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>433.5647952177337</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>338.8290049885998</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>142.1674636999931</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>156.730423204287</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>228.9222706564252</v>
+        <v>156.730423204286</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>577.2233812016744</v>
+        <v>654.6768806415573</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>106.4321405421163</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>623.5368394293864</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>185.3433264374525</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459287</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>38.22735379816231</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>38.22735379816731</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>355.8975842583693</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>403.1350258841851</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>597.2584720711723</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>558.5620810483679</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>44.93966751152084</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>38.22735379816731</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>256.7604858289869</v>
+        <v>242.7895305103176</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>209.0900454679168</v>
+        <v>38.22735379816731</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4.217953603099716</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>149.1183851150439</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>45.75904403825052</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>323.2928365343473</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>69.27619576520601</v>
+        <v>176.4173968858559</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>249.6921709897477</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>100.9262404228935</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>149.4600229502525</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.6655134314239</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>80.33532108510821</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>383.0448535447668</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>102.18627129542</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6470397948864957</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>106.8642314578491</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>193.5522704245896</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23788,19 +23788,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>89.791102776944</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>90.59995326790036</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>129.3891980354601</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>11.52246979425374</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>107.2106287047886</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>56.68324032061571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>101.7502822768317</v>
+        <v>172.6070678844185</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>93.78835059441658</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>243.0532847121943</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>374.1769144210235</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>341.8749071406949</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>329.0497264412116</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>360.0712553386114</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>189.9536751289356</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>43.067507226495</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>89.4745089810155</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>202.1418353045336</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>60.13588552871232</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806301</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>125.6718977746361</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>187.3620226258308</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>221.6333613121568</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>240.7943400583326</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>13.11437420552826</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>76.7040053937271</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>237.85273328904</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>291.2528530245756</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,16 +26025,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>35.1651294035899</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.86896999587975</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>283449.5205325035</v>
+        <v>283449.5205325034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>425392.4021055409</v>
+        <v>425392.4021055414</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>425392.4021055409</v>
+        <v>425392.4021055414</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>425392.4021055409</v>
+        <v>425392.4021055414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>425392.4021055409</v>
+        <v>425392.4021055414</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>283449.5205325035</v>
+        <v>283449.5205325034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471046.1696008124</v>
+        <v>471046.1696008125</v>
       </c>
       <c r="C2" t="n">
         <v>471046.1696008125</v>
       </c>
       <c r="D2" t="n">
-        <v>471046.1696008124</v>
+        <v>471046.1696008125</v>
       </c>
       <c r="E2" t="n">
-        <v>283135.6283414713</v>
+        <v>283135.6283414711</v>
       </c>
       <c r="F2" t="n">
+        <v>283135.6283414712</v>
+      </c>
+      <c r="G2" t="n">
         <v>283135.6283414711</v>
       </c>
-      <c r="G2" t="n">
-        <v>283135.6283414713</v>
-      </c>
       <c r="H2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414711</v>
       </c>
       <c r="I2" t="n">
-        <v>380717.9369233348</v>
+        <v>380717.9369233352</v>
       </c>
       <c r="J2" t="n">
-        <v>380717.9369233348</v>
+        <v>380717.9369233352</v>
       </c>
       <c r="K2" t="n">
-        <v>380717.9369233348</v>
+        <v>380717.9369233353</v>
       </c>
       <c r="L2" t="n">
-        <v>380717.9369233348</v>
+        <v>380717.9369233352</v>
       </c>
       <c r="M2" t="n">
         <v>283135.6283414713</v>
@@ -26352,7 +26352,7 @@
         <v>283135.6283414711</v>
       </c>
       <c r="O2" t="n">
-        <v>283135.6283414714</v>
+        <v>283135.6283414711</v>
       </c>
       <c r="P2" t="n">
         <v>283135.6283414712</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80641.39924595098</v>
+        <v>80641.39924595137</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71478.85321840785</v>
+        <v>71478.85321840744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="F4" t="n">
         <v>16511.4186966076</v>
       </c>
       <c r="G4" t="n">
+        <v>16511.4186966076</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16511.41869660759</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66459.1704279634</v>
+      </c>
+      <c r="J4" t="n">
+        <v>66459.1704279634</v>
+      </c>
+      <c r="K4" t="n">
+        <v>66459.1704279634</v>
+      </c>
+      <c r="L4" t="n">
+        <v>66459.1704279634</v>
+      </c>
+      <c r="M4" t="n">
         <v>16511.41869660761</v>
       </c>
-      <c r="H4" t="n">
-        <v>16511.41869660761</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66459.17042796322</v>
-      </c>
-      <c r="J4" t="n">
-        <v>66459.17042796321</v>
-      </c>
-      <c r="K4" t="n">
-        <v>66459.17042796321</v>
-      </c>
-      <c r="L4" t="n">
-        <v>66459.17042796321</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>16511.4186966076</v>
       </c>
-      <c r="N4" t="n">
-        <v>16511.41869660761</v>
-      </c>
       <c r="O4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="P4" t="n">
         <v>16511.4186966076</v>
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>64488.87692398088</v>
+        <v>64488.87692398096</v>
       </c>
       <c r="J5" t="n">
-        <v>64488.87692398088</v>
+        <v>64488.87692398096</v>
       </c>
       <c r="K5" t="n">
-        <v>64488.87692398088</v>
+        <v>64488.87692398096</v>
       </c>
       <c r="L5" t="n">
-        <v>64488.87692398088</v>
+        <v>64488.87692398096</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.9465714781</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.9465714781</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-330562.0725554498</v>
+        <v>-331115.9529986719</v>
       </c>
       <c r="F6" t="n">
-        <v>220573.1284352257</v>
+        <v>220019.2479920039</v>
       </c>
       <c r="G6" t="n">
-        <v>220573.1284352259</v>
+        <v>220019.2479920037</v>
       </c>
       <c r="H6" t="n">
-        <v>220573.1284352257</v>
+        <v>220019.2479920037</v>
       </c>
       <c r="I6" t="n">
-        <v>169128.4903254398</v>
+        <v>168845.6718505005</v>
       </c>
       <c r="J6" t="n">
-        <v>249769.8895713908</v>
+        <v>249487.0710964519</v>
       </c>
       <c r="K6" t="n">
-        <v>249769.8895713908</v>
+        <v>249487.071096452</v>
       </c>
       <c r="L6" t="n">
-        <v>249769.8895713908</v>
+        <v>249487.0710964519</v>
       </c>
       <c r="M6" t="n">
-        <v>149094.275216818</v>
+        <v>148540.3947735965</v>
       </c>
       <c r="N6" t="n">
-        <v>220573.1284352257</v>
+        <v>220019.2479920038</v>
       </c>
       <c r="O6" t="n">
-        <v>220573.1284352259</v>
+        <v>220019.2479920038</v>
       </c>
       <c r="P6" t="n">
-        <v>220573.1284352258</v>
+        <v>220019.2479920039</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>893.3351133478398</v>
+        <v>893.335113347841</v>
       </c>
       <c r="J4" t="n">
-        <v>893.3351133478398</v>
+        <v>893.335113347841</v>
       </c>
       <c r="K4" t="n">
-        <v>893.3351133478398</v>
+        <v>893.335113347841</v>
       </c>
       <c r="L4" t="n">
-        <v>893.3351133478398</v>
+        <v>893.335113347841</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
@@ -26828,10 +26828,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>303.2532189859055</v>
+        <v>303.253218985907</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.8286753760287</v>
+        <v>286.828675376027</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,28 +32071,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33040,7 +33040,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33754,13 +33754,13 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>139.4164512162879</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>562.3515748176221</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>457.7844406934096</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>239.945343061163</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>258.5173486362903</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125712</v>
+        <v>159.2391669125703</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>354.0442924930898</v>
+        <v>281.8524450409506</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>815.8816139079582</v>
+        <v>893.3351133478411</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>402.5087818187837</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>893.33511334784</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36436,7 +36436,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562318</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>283.1212057986224</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458171</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561039</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>354.3440351530032</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>308.0256277166209</v>
       </c>
       <c r="Q26" t="n">
         <v>754.6262434036994</v>
@@ -36673,10 +36673,10 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36685,10 +36685,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>481.0196060950339</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>522.0904615889949</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36831,31 +36831,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>893.3351133478396</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>893.3351133478398</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>361.056348866362</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>308.0256277166209</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,16 +36922,16 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>381.8825076656515</v>
+        <v>367.9115523469821</v>
       </c>
       <c r="M31" t="n">
         <v>596.0487469893359</v>
@@ -37007,7 +37007,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485101</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
@@ -37074,7 +37074,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>478.8883193863703</v>
+        <v>308.0256277166209</v>
       </c>
       <c r="Q32" t="n">
         <v>754.6262434036994</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916771</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37165,7 +37165,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>63.71862400934531</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>274.2404069517085</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
         <v>596.0487469893359</v>
@@ -37244,7 +37244,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37466,25 +37466,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L37" t="n">
-        <v>281.852445040951</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,7 +37545,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619341</v>
@@ -37715,13 +37715,13 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>147.5459694702538</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37782,7 +37782,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>448.4148583710119</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>167.0540751263759</v>
+        <v>274.1952762470258</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
